--- a/samples_standard_boxes_info.xlsx
+++ b/samples_standard_boxes_info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="108">
   <si>
     <t xml:space="preserve">##</t>
   </si>
@@ -50,6 +50,9 @@
     <t xml:space="preserve">Additional information</t>
   </si>
   <si>
+    <t xml:space="preserve">Bad</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bskgr</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
     <t xml:space="preserve">149-152</t>
   </si>
   <si>
+    <t xml:space="preserve">150, 152</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cu</t>
   </si>
   <si>
@@ -114,6 +120,9 @@
   </si>
   <si>
     <t xml:space="preserve">171, 172, 173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171, 172</t>
   </si>
   <si>
     <t xml:space="preserve">NaCl</t>
@@ -514,19 +523,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="29.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,13 +566,16 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>20</v>
@@ -582,18 +594,19 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>40</v>
@@ -612,18 +625,19 @@
         <v>34</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>40</v>
@@ -642,18 +656,19 @@
         <v>34</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>40</v>
@@ -672,18 +687,19 @@
         <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>20</v>
@@ -696,16 +712,19 @@
         <v>2.08125</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>34</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -713,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>20</v>
@@ -732,18 +751,19 @@
         <v>34</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>20</v>
@@ -762,18 +782,19 @@
         <v>34</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>20</v>
@@ -792,18 +813,19 @@
         <v>34</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>20</v>
@@ -822,18 +844,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>20</v>
@@ -852,18 +875,19 @@
         <v>34</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>40</v>
@@ -882,18 +906,19 @@
         <v>34</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>20</v>
@@ -909,21 +934,22 @@
         <v>160</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>40</v>
@@ -942,18 +968,19 @@
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>40</v>
@@ -972,18 +999,19 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>20</v>
@@ -1002,15 +1030,16 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1019,16 +1048,17 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>40</v>
@@ -1048,18 +1078,19 @@
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>40</v>
@@ -1073,16 +1104,19 @@
         <v>0.5575</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1090,7 +1124,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>40</v>
@@ -1104,24 +1138,25 @@
         <v>1.501875</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>40</v>
@@ -1141,18 +1176,19 @@
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>40</v>
@@ -1171,18 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>40</v>
@@ -1202,13 +1239,14 @@
         <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1216,7 +1254,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>20</v>
@@ -1236,19 +1274,20 @@
         <v>0</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>40</v>
@@ -1268,18 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>10</v>
@@ -1292,16 +1332,19 @@
         <v>5.0225</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,7 +1352,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>40</v>
@@ -1329,12 +1372,13 @@
         <v>0</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H28" s="2"/>
@@ -1354,7 +1398,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1388,13 +1432,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>1</v>
@@ -1409,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D2" s="10" t="str">
         <f aca="false">SampleBox!B15</f>
@@ -1423,7 +1467,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D3" s="10" t="str">
         <f aca="false">SampleBox!B23</f>
@@ -1437,7 +1481,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D4" s="10" t="str">
         <f aca="false">SampleBox!B19</f>
@@ -1451,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5" s="10" t="str">
         <f aca="false">SampleBox!B14</f>
@@ -1465,7 +1509,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D6" s="10" t="str">
         <f aca="false">SampleBox!B19</f>
@@ -1479,7 +1523,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D7" s="12" t="str">
         <f aca="false">CONCATENATE(SampleBox!B3,", ",SampleBox!B4,", ",SampleBox!B5,", ",SampleBox!B6,", ",SampleBox!B9,", ",SampleBox!B10,", ",SampleBox!B11,", ",SampleBox!B12,", ",SampleBox!B13,", ",SampleBox!B18,", ",SampleBox!B23,", ",SampleBox!B25,", ",SampleBox!B27)</f>
@@ -1493,7 +1537,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D8" s="9" t="str">
         <f aca="false">SampleBox!B15</f>
@@ -1507,7 +1551,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D9" s="9" t="str">
         <f aca="false">SampleBox!B20</f>
@@ -1521,7 +1565,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D10" s="9" t="str">
         <f aca="false">SampleBox!B25</f>
@@ -1535,7 +1579,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D11" s="9" t="str">
         <f aca="false">SampleBox!B5</f>
@@ -1549,7 +1593,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D12" s="9" t="str">
         <f aca="false">CONCATENATE(SampleBox!B10,", ",SampleBox!B11)</f>
@@ -1563,7 +1607,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D13" s="9" t="str">
         <f aca="false">SampleBox!B27</f>
@@ -1577,7 +1621,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D14" s="9" t="str">
         <f aca="false">SampleBox!B22</f>
@@ -1591,7 +1635,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D15" s="9" t="str">
         <f aca="false">CONCATENATE(SampleBox!B14,", ",SampleBox!B20,", ",SampleBox!B21)</f>
@@ -1605,7 +1649,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D16" s="9" t="str">
         <f aca="false">SampleBox!B21</f>
@@ -1619,7 +1663,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D17" s="9" t="str">
         <f aca="false">SampleBox!B3</f>
@@ -1633,7 +1677,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D18" s="9" t="str">
         <f aca="false">SampleBox!B4</f>
@@ -1647,7 +1691,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D19" s="9" t="str">
         <f aca="false">SampleBox!B18</f>
@@ -1661,7 +1705,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D20" s="9" t="str">
         <f aca="false">SampleBox!B6</f>
@@ -1675,7 +1719,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D21" s="9" t="str">
         <f aca="false">SampleBox!B13</f>
@@ -1689,7 +1733,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D22" s="9" t="str">
         <f aca="false">SampleBox!B8</f>
@@ -1703,7 +1747,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D23" s="9" t="str">
         <f aca="false">SampleBox!B24</f>
@@ -1717,7 +1761,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D24" s="9" t="str">
         <f aca="false">SampleBox!B9</f>
@@ -1731,7 +1775,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D25" s="9" t="str">
         <f aca="false">SampleBox!B7</f>
@@ -1745,7 +1789,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D26" s="9" t="str">
         <f aca="false">SampleBox!B16</f>
@@ -1759,7 +1803,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D27" s="9" t="str">
         <f aca="false">SampleBox!B26</f>
@@ -1778,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="11"/>
@@ -1807,7 +1851,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D30" s="10"/>
     </row>
@@ -1817,7 +1861,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D31" s="10"/>
     </row>
@@ -1827,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D32" s="10"/>
     </row>
@@ -1837,13 +1881,13 @@
         <v>5</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1852,13 +1896,13 @@
         <v>6</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1867,7 +1911,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D35" s="10"/>
     </row>
@@ -1877,7 +1921,7 @@
         <v>8</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D36" s="10"/>
     </row>
@@ -1887,7 +1931,7 @@
         <v>9</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D37" s="10"/>
     </row>
@@ -1897,7 +1941,7 @@
         <v>10</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D38" s="10"/>
     </row>
@@ -1907,7 +1951,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D39" s="10"/>
     </row>
@@ -1917,7 +1961,7 @@
         <v>12</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D40" s="10"/>
     </row>
@@ -1927,11 +1971,11 @@
         <v>13</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1940,7 +1984,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D42" s="10"/>
     </row>
@@ -1950,7 +1994,7 @@
         <v>15</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="11"/>
@@ -1964,7 +2008,7 @@
         <v>16</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D44" s="10"/>
     </row>
@@ -1974,13 +2018,13 @@
         <v>17</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,13 +2033,13 @@
         <v>18</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2004,7 +2048,7 @@
         <v>19</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D47" s="10"/>
     </row>
@@ -2014,7 +2058,7 @@
         <v>20</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D48" s="10"/>
     </row>
@@ -2024,7 +2068,7 @@
         <v>21</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="15"/>
@@ -2039,7 +2083,7 @@
         <v>22</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="11"/>
@@ -2050,7 +2094,7 @@
         <v>23</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D51" s="10"/>
     </row>
@@ -2060,7 +2104,7 @@
         <v>24</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D52" s="10"/>
     </row>
@@ -2070,7 +2114,7 @@
         <v>25</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D53" s="10"/>
     </row>
@@ -2080,11 +2124,11 @@
         <v>26</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2093,11 +2137,11 @@
         <v>27</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2106,11 +2150,11 @@
         <v>28</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2120,7 +2164,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/samples_standard_boxes_info.xlsx
+++ b/samples_standard_boxes_info.xlsx
@@ -11,6 +11,9 @@
     <sheet name="SampleBox" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Element" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SampleBox!$C$1:$C$29</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="111">
   <si>
     <t xml:space="preserve">##</t>
   </si>
@@ -32,6 +35,9 @@
     <t xml:space="preserve">Dimensions 200x200x (mm)</t>
   </si>
   <si>
+    <t xml:space="preserve">Box mass</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mass (g)</t>
   </si>
   <si>
@@ -56,6 +62,9 @@
     <t xml:space="preserve">Bskgr</t>
   </si>
   <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
     <t xml:space="preserve">-7.5 move box</t>
   </si>
   <si>
@@ -65,7 +74,7 @@
     <t xml:space="preserve">CaO</t>
   </si>
   <si>
-    <t xml:space="preserve">TiO</t>
+    <t xml:space="preserve">TiO2</t>
   </si>
   <si>
     <t xml:space="preserve">Al2O3</t>
@@ -104,7 +113,7 @@
     <t xml:space="preserve">CH2Cl2</t>
   </si>
   <si>
-    <t xml:space="preserve">LiF</t>
+    <t xml:space="preserve">LiF (NaF)</t>
   </si>
   <si>
     <t xml:space="preserve">Zn</t>
@@ -158,6 +167,24 @@
     <t xml:space="preserve">P2O5</t>
   </si>
   <si>
+    <t xml:space="preserve">Ga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Te</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La2O3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Year</t>
   </si>
   <si>
@@ -230,18 +257,12 @@
     <t xml:space="preserve">Ni</t>
   </si>
   <si>
-    <t xml:space="preserve">Ga</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ge</t>
   </si>
   <si>
     <t xml:space="preserve">As</t>
   </si>
   <si>
-    <t xml:space="preserve">Se</t>
-  </si>
-  <si>
     <t xml:space="preserve">Br</t>
   </si>
   <si>
@@ -266,12 +287,6 @@
     <t xml:space="preserve">Zr</t>
   </si>
   <si>
-    <t xml:space="preserve">Nb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pd</t>
   </si>
   <si>
@@ -288,9 +303,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Te</t>
   </si>
   <si>
     <t xml:space="preserve">I</t>
@@ -357,7 +369,7 @@
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -383,6 +395,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -441,7 +460,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -470,39 +489,35 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -515,27 +530,41 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="29.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="29.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,10 +580,10 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -569,477 +598,532 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <f aca="false">D2/(20*20*C2/10)</f>
+      <c r="F2" s="4" t="n">
+        <f aca="false">E2/(20*20*C2/10)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="G2" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="H2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>40</v>
       </c>
       <c r="D3" s="2" t="n">
+        <v>470</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>1004</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <f aca="false">D3/(20*20*C3/10)</f>
+      <c r="F3" s="4" t="n">
+        <f aca="false">E3/(20*20*C3/10)</f>
         <v>0.6275</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="G3" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="H3" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>40</v>
       </c>
       <c r="D4" s="2" t="n">
+        <v>467</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>1405</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <f aca="false">D4/(20*20*C4/10)</f>
+      <c r="F4" s="4" t="n">
+        <f aca="false">E4/(20*20*C4/10)</f>
         <v>0.878125</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="G4" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="H4" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>40</v>
       </c>
       <c r="D5" s="2" t="n">
+        <v>454.6</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>1668</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <f aca="false">D5/(20*20*C5/10)</f>
+      <c r="F5" s="4" t="n">
+        <f aca="false">E5/(20*20*C5/10)</f>
         <v>1.0425</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="G5" s="2" t="n">
         <v>153</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="H5" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="n">
+        <f aca="false">380+38</f>
+        <v>418</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>1665</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <f aca="false">D6/(20*20*C6/10)</f>
+      <c r="F6" s="4" t="n">
+        <f aca="false">E6/(20*20*C6/10)</f>
         <v>2.08125</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="n">
+        <f aca="false">377+38</f>
+        <v>415</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>2015</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <f aca="false">D7/(20*20*C7/10)</f>
+      <c r="F7" s="4" t="n">
+        <f aca="false">E7/(20*20*C7/10)</f>
         <v>2.51875</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="G7" s="2" t="n">
         <v>158</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="H7" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>2903</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <f aca="false">D8/(20*20*C8/10)</f>
+      <c r="F8" s="4" t="n">
+        <f aca="false">E8/(20*20*C8/10)</f>
         <v>3.62875</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="G8" s="2" t="n">
         <v>156</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="H8" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="n">
+        <f aca="false">376.5+38</f>
+        <v>414.5</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>1656</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <f aca="false">D9/(20*20*C9/10)</f>
+      <c r="F9" s="4" t="n">
+        <f aca="false">E9/(20*20*C9/10)</f>
         <v>2.07</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="G9" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="H9" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>20</v>
       </c>
       <c r="D10" s="2" t="n">
+        <f aca="false">353+38</f>
+        <v>391</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>1302</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <f aca="false">D10/(20*20*C10/10)</f>
+      <c r="F10" s="4" t="n">
+        <f aca="false">E10/(20*20*C10/10)</f>
         <v>1.6275</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="G10" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="H10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="n">
+        <f aca="false">353+38</f>
+        <v>391</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>1302</v>
       </c>
-      <c r="E11" s="4" t="n">
-        <f aca="false">D11/(20*20*C11/10)</f>
+      <c r="F11" s="4" t="n">
+        <f aca="false">E11/(20*20*C11/10)</f>
         <v>1.6275</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="G11" s="2" t="n">
         <v>159</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="H11" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="n">
         <v>1646</v>
       </c>
-      <c r="E12" s="4" t="n">
-        <f aca="false">D12/(20*20*C12/10)</f>
+      <c r="F12" s="4" t="n">
+        <f aca="false">E12/(20*20*C12/10)</f>
         <v>1.02875</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="G12" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="H12" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>20</v>
       </c>
       <c r="D13" s="2" t="n">
+        <f aca="false">361+38</f>
+        <v>399</v>
+      </c>
+      <c r="E13" s="2" t="n">
         <v>1003</v>
       </c>
-      <c r="E13" s="4" t="n">
-        <f aca="false">D13/(20*20*C13/10)</f>
+      <c r="F13" s="4" t="n">
+        <f aca="false">E13/(20*20*C13/10)</f>
         <v>1.25375</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="G13" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>40</v>
       </c>
       <c r="D14" s="2" t="n">
+        <v>488</v>
+      </c>
+      <c r="E14" s="2" t="n">
         <v>2070</v>
       </c>
-      <c r="E14" s="4" t="n">
-        <f aca="false">D14/(20*20*C14/10)</f>
+      <c r="F14" s="4" t="n">
+        <f aca="false">E14/(20*20*C14/10)</f>
         <v>1.29375</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="G14" s="2" t="n">
         <v>161</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="H14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>40</v>
       </c>
       <c r="D15" s="2" t="n">
+        <v>455</v>
+      </c>
+      <c r="E15" s="2" t="n">
         <v>2234</v>
       </c>
-      <c r="E15" s="4" t="n">
-        <f aca="false">D15/(20*20*C15/10)</f>
+      <c r="F15" s="4" t="n">
+        <f aca="false">E15/(20*20*C15/10)</f>
         <v>1.39625</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="G15" s="2" t="n">
         <v>170</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="H15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>20</v>
       </c>
       <c r="D16" s="2" t="n">
+        <f aca="false">360+38</f>
+        <v>398</v>
+      </c>
+      <c r="E16" s="2" t="n">
         <v>3464</v>
       </c>
-      <c r="E16" s="4" t="n">
-        <f aca="false">D16/(20*20*C16/10)</f>
+      <c r="F16" s="4" t="n">
+        <f aca="false">E16/(20*20*C16/10)</f>
         <v>4.33</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="G16" s="2" t="n">
         <v>169</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="H16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1047,76 +1131,84 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>40</v>
       </c>
       <c r="D18" s="2" t="n">
+        <f aca="false">431+45</f>
+        <v>476</v>
+      </c>
+      <c r="E18" s="2" t="n">
         <f aca="false">2295-431</f>
         <v>1864</v>
       </c>
-      <c r="E18" s="4" t="n">
-        <f aca="false">D18/(20*20*C18/10)</f>
+      <c r="F18" s="4" t="n">
+        <f aca="false">E18/(20*20*C18/10)</f>
         <v>1.165</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="G18" s="2" t="n">
         <v>178</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="H18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>40</v>
       </c>
       <c r="D19" s="2" t="n">
+        <v>448</v>
+      </c>
+      <c r="E19" s="2" t="n">
         <f aca="false">1340-448</f>
         <v>892</v>
       </c>
-      <c r="E19" s="4" t="n">
-        <f aca="false">D19/(20*20*C19/10)</f>
+      <c r="F19" s="4" t="n">
+        <f aca="false">E19/(20*20*C19/10)</f>
         <v>0.5575</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I19" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1124,226 +1216,251 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="2" t="n">
+        <v>465</v>
+      </c>
+      <c r="E20" s="6" t="n">
         <f aca="false">2868-465</f>
         <v>2403</v>
       </c>
-      <c r="E20" s="4" t="n">
-        <f aca="false">D20/(20*20*C20/10)</f>
+      <c r="F20" s="4" t="n">
+        <f aca="false">E20/(20*20*C20/10)</f>
         <v>1.501875</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="6" t="n">
+      <c r="G20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="2" t="n">
+        <f aca="false">414+45</f>
+        <v>459</v>
+      </c>
+      <c r="E21" s="6" t="n">
         <f aca="false">2421-414</f>
         <v>2007</v>
       </c>
-      <c r="E21" s="4" t="n">
-        <f aca="false">D21/(20*20*C21/10)</f>
+      <c r="F21" s="4" t="n">
+        <f aca="false">E21/(20*20*C21/10)</f>
         <v>1.254375</v>
       </c>
-      <c r="F21" s="6" t="n">
+      <c r="G21" s="6" t="n">
         <v>177</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="H21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>40</v>
       </c>
       <c r="D22" s="6" t="n">
+        <v>450</v>
+      </c>
+      <c r="E22" s="6" t="n">
         <v>1893</v>
       </c>
-      <c r="E22" s="4" t="n">
-        <f aca="false">D22/(20*20*C22/10)</f>
+      <c r="F22" s="4" t="n">
+        <f aca="false">E22/(20*20*C22/10)</f>
         <v>1.183125</v>
       </c>
-      <c r="F22" s="6" t="n">
+      <c r="G22" s="6" t="n">
         <v>179</v>
       </c>
-      <c r="G22" s="6" t="n">
+      <c r="H22" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>40</v>
       </c>
       <c r="D23" s="6" t="n">
+        <f aca="false">412+45</f>
+        <v>457</v>
+      </c>
+      <c r="E23" s="6" t="n">
         <f aca="false">642-412</f>
         <v>230</v>
       </c>
-      <c r="E23" s="4" t="n">
-        <f aca="false">D23/(20*20*C23/10)</f>
+      <c r="F23" s="4" t="n">
+        <f aca="false">E23/(20*20*C23/10)</f>
         <v>0.14375</v>
       </c>
-      <c r="F23" s="6" t="n">
+      <c r="G23" s="6" t="n">
         <v>180</v>
       </c>
-      <c r="G23" s="6" t="n">
+      <c r="H23" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" s="6" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="2" t="n">
+        <f aca="false">361+38</f>
+        <v>399</v>
+      </c>
+      <c r="E24" s="6" t="n">
         <f aca="false">1833-361</f>
         <v>1472</v>
       </c>
-      <c r="E24" s="4" t="n">
-        <f aca="false">D24/(20*20*C24/10)</f>
+      <c r="F24" s="4" t="n">
+        <f aca="false">E24/(20*20*C24/10)</f>
         <v>1.84</v>
       </c>
-      <c r="F24" s="6" t="n">
+      <c r="G24" s="6" t="n">
         <v>181</v>
       </c>
-      <c r="G24" s="6" t="n">
+      <c r="H24" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>40</v>
       </c>
       <c r="D25" s="6" t="n">
+        <f aca="false">428+45</f>
+        <v>473</v>
+      </c>
+      <c r="E25" s="6" t="n">
         <f aca="false">2045-428</f>
         <v>1617</v>
       </c>
-      <c r="E25" s="4" t="n">
-        <f aca="false">D25/(20*20*C25/10)</f>
+      <c r="F25" s="4" t="n">
+        <f aca="false">E25/(20*20*C25/10)</f>
         <v>1.010625</v>
       </c>
-      <c r="F25" s="6" t="n">
+      <c r="G25" s="6" t="n">
         <v>185</v>
       </c>
-      <c r="G25" s="6" t="n">
+      <c r="H25" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>10</v>
       </c>
       <c r="D26" s="6" t="n">
+        <v>341</v>
+      </c>
+      <c r="E26" s="6" t="n">
         <v>2009</v>
       </c>
-      <c r="E26" s="4" t="n">
-        <f aca="false">D26/(20*20*C26/10)</f>
+      <c r="F26" s="4" t="n">
+        <f aca="false">E26/(20*20*C26/10)</f>
         <v>5.0225</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="6" t="n">
+      <c r="G26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="2" t="n">
         <v>183</v>
       </c>
     </row>
@@ -1352,49 +1469,173 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="2" t="n">
+        <f aca="false">431+45</f>
+        <v>476</v>
+      </c>
+      <c r="E27" s="6" t="n">
         <f aca="false">1733-431</f>
         <v>1302</v>
       </c>
-      <c r="E27" s="4" t="n">
-        <f aca="false">D27/(20*20*C27/10)</f>
+      <c r="F27" s="4" t="n">
+        <f aca="false">E27/(20*20*C27/10)</f>
         <v>0.81375</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="G27" s="2" t="n">
         <v>186</v>
       </c>
-      <c r="G27" s="6" t="n">
+      <c r="H27" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H31" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <f aca="false">(36.49-20.95)/5</f>
+        <v>3.108</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <f aca="false">(45.02-20.94)/5</f>
+        <v>4.816</v>
+      </c>
+    </row>
+    <row r="33" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <f aca="false">(48.3-20.94)/5</f>
+        <v>5.472</v>
+      </c>
+    </row>
+    <row r="34" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <f aca="false">(37.27-20.94)/5</f>
+        <v>3.266</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="n">
+        <f aca="false">(25.52-20.94)/5</f>
+        <v>0.916</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A17:I17"/>
+  <autoFilter ref="C1:C29">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="40"/>
+        <filter val="Dimensions 200x200x (mm)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="2">
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A28:J28"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1403,6 +1644,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1413,7 +1655,7 @@
   </sheetPr>
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1423,738 +1665,738 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="7" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="20.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="19.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="7" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="20.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="19.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="8" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="A1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="10" t="n">
         <v>2024</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="10" t="str">
+      <c r="C2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="11" t="str">
         <f aca="false">SampleBox!B15</f>
-        <v>LiF</v>
-      </c>
-      <c r="E2" s="11"/>
+        <v>LiF (NaF)</v>
+      </c>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="n">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="10" t="str">
+      <c r="C3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="11" t="str">
         <f aca="false">SampleBox!B23</f>
         <v>BeO</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9" t="n">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="10" t="str">
+      <c r="C4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="11" t="str">
         <f aca="false">SampleBox!B19</f>
         <v>BN</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="n">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="10" t="str">
+      <c r="C5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="11" t="str">
         <f aca="false">SampleBox!B14</f>
         <v>CH2Cl2</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="n">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="10" t="str">
+      <c r="C6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="11" t="str">
         <f aca="false">SampleBox!B19</f>
         <v>BN</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="66.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9" t="n">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="12" t="str">
+      <c r="C7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="13" t="str">
         <f aca="false">CONCATENATE(SampleBox!B3,", ",SampleBox!B4,", ",SampleBox!B5,", ",SampleBox!B6,", ",SampleBox!B9,", ",SampleBox!B10,", ",SampleBox!B11,", ",SampleBox!B12,", ",SampleBox!B13,", ",SampleBox!B18,", ",SampleBox!B23,", ",SampleBox!B25,", ",SampleBox!B27)</f>
-        <v>CaO, TiO, Al2O3, Cr2O3, Ni2O3, SiO2, SiO2, NaOH, MnO2, V2O5, BeO, MgO, P2O5</v>
-      </c>
-      <c r="E7" s="11"/>
+        <v>CaO, TiO2, Al2O3, Cr2O3, Ni2O3, SiO2, SiO2, NaOH, MnO2, V2O5, BeO, MgO, P2O5</v>
+      </c>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="n">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="9" t="str">
+      <c r="C8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="10" t="str">
         <f aca="false">SampleBox!B15</f>
-        <v>LiF</v>
-      </c>
-      <c r="E8" s="11"/>
+        <v>LiF (NaF)</v>
+      </c>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="n">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="9" t="str">
+      <c r="C9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="10" t="str">
         <f aca="false">SampleBox!B20</f>
         <v>NaCl</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="n">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="9" t="str">
+      <c r="C10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="10" t="str">
         <f aca="false">SampleBox!B25</f>
         <v>MgO</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="n">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="9" t="str">
+      <c r="C11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="10" t="str">
         <f aca="false">SampleBox!B5</f>
         <v>Al2O3</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9" t="n">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="9" t="str">
+      <c r="C12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="10" t="str">
         <f aca="false">CONCATENATE(SampleBox!B10,", ",SampleBox!B11)</f>
         <v>SiO2, SiO2</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9" t="n">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="9" t="str">
+      <c r="C13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="10" t="str">
         <f aca="false">SampleBox!B27</f>
         <v>P2O5</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="9" t="str">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="10" t="str">
         <f aca="false">SampleBox!B22</f>
         <v>S</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="9" t="str">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="10" t="str">
         <f aca="false">CONCATENATE(SampleBox!B14,", ",SampleBox!B20,", ",SampleBox!B21)</f>
         <v>CH2Cl2, NaCl, KCl</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9" t="n">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="9" t="str">
+      <c r="C16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="10" t="str">
         <f aca="false">SampleBox!B21</f>
         <v>KCl</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9" t="n">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="9" t="str">
+      <c r="C17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="10" t="str">
         <f aca="false">SampleBox!B3</f>
         <v>CaO</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9" t="n">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="9" t="str">
+      <c r="C18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="10" t="str">
         <f aca="false">SampleBox!B4</f>
-        <v>TiO</v>
-      </c>
-      <c r="E18" s="11"/>
+        <v>TiO2</v>
+      </c>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9" t="n">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="9" t="str">
+      <c r="C19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="10" t="str">
         <f aca="false">SampleBox!B18</f>
         <v>V2O5</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9" t="n">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="9" t="str">
+      <c r="C20" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="10" t="str">
         <f aca="false">SampleBox!B6</f>
         <v>Cr2O3</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9" t="n">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="9" t="str">
+      <c r="C21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="10" t="str">
         <f aca="false">SampleBox!B13</f>
         <v>MnO2</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9" t="n">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="9" t="str">
+      <c r="C22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="10" t="str">
         <f aca="false">SampleBox!B8</f>
         <v>Fe</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9" t="n">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="9" t="str">
+      <c r="C23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="10" t="str">
         <f aca="false">SampleBox!B24</f>
         <v>Co3O4</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9" t="n">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="9" t="str">
+      <c r="C24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="10" t="str">
         <f aca="false">SampleBox!B9</f>
         <v>Ni2O3</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9" t="n">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="9" t="str">
+      <c r="C25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="10" t="str">
         <f aca="false">SampleBox!B7</f>
         <v>Cu</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9" t="n">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="9" t="str">
+      <c r="C26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="10" t="str">
         <f aca="false">SampleBox!B16</f>
         <v>Zn</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9" t="n">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="n">
         <v>26</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="9" t="str">
+      <c r="C27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="10" t="str">
         <f aca="false">SampleBox!B26</f>
         <v>Sn</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11"/>
+      <c r="A28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="n">
+      <c r="A29" s="10" t="n">
         <v>2025</v>
       </c>
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
+      <c r="C29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9" t="n">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="10"/>
+      <c r="C30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9" t="n">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="10"/>
+      <c r="C31" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9" t="n">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="10"/>
+      <c r="C32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9" t="n">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>75</v>
+      <c r="C33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9" t="n">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>78</v>
+      <c r="C34" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9" t="n">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="10"/>
+      <c r="C35" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9" t="n">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="10"/>
+      <c r="C36" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9" t="n">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="10"/>
+      <c r="C37" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9" t="n">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="10"/>
+      <c r="C38" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9" t="n">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="10"/>
+      <c r="C39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9" t="n">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9" t="n">
-        <v>17</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9" t="n">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="10"/>
+      <c r="C47" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9" t="n">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="10"/>
+      <c r="C48" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9" t="n">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10" t="n">
         <v>21</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D49" s="14"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9" t="n">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="11"/>
+      <c r="C50" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="12"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9" t="n">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="10"/>
+      <c r="C51" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9" t="n">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D52" s="10"/>
+      <c r="C52" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="11"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9" t="n">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" s="10"/>
+      <c r="C53" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="11"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9" t="n">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10" t="n">
         <v>26</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="7" t="s">
-        <v>103</v>
+      <c r="C54" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9" t="n">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="7" t="s">
-        <v>105</v>
+      <c r="C55" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="14" t="n">
         <v>28</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="7" t="s">
-        <v>107</v>
+      <c r="C56" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
